--- a/public/Excel/Template_polling_units.xlsx
+++ b/public/Excel/Template_polling_units.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ERS_Project\public\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{428AC93E-7261-424E-8E97-4A799260D8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F66BAB4-0DAB-41A0-BCA3-FD741739B0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F11A4A6-36E7-4462-82AB-0FAFF8D6679B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1F11A4A6-36E7-4462-82AB-0FAFF8D6679B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>จังหวัด</t>
   </si>
@@ -54,13 +54,31 @@
   </si>
   <si>
     <t>จำนวนผู้มีสิทธิ</t>
+  </si>
+  <si>
+    <t>กาญจนบุรี (ตัวอย่างกรุณาลบ)</t>
+  </si>
+  <si>
+    <t>เมืองกาญจนบุรี (ตัวอย่างกรุณาลบ)</t>
+  </si>
+  <si>
+    <t>1  (ตัวอย่างกรุณาลบ)</t>
+  </si>
+  <si>
+    <t>เทศบาลเมืองปากแพรก (ตัวอย่างกรุณาลบ)</t>
+  </si>
+  <si>
+    <t>1 (ตัวอย่างกรุณาลบ)</t>
+  </si>
+  <si>
+    <t>743 (ตัวอย่างกรุณาลบ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +98,12 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
@@ -120,12 +144,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -463,15 +494,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591D6335-D83F-4F3E-A77A-F48DD24159D4}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="26.09765625" customWidth="1"/>
+    <col min="1" max="1" width="26.09765625" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" customWidth="1"/>
+    <col min="3" max="3" width="21.8984375" customWidth="1"/>
+    <col min="4" max="4" width="33.296875" customWidth="1"/>
+    <col min="5" max="5" width="21.296875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
@@ -494,6 +530,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
